--- a/data/processed/mobile_participants_more_female.xlsx
+++ b/data/processed/mobile_participants_more_female.xlsx
@@ -474,8 +474,10 @@
       <c r="A2" t="n">
         <v>2011</v>
       </c>
-      <c r="B2" t="n">
-        <v>2443</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2443</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -492,19 +494,25 @@
           <t>American Adults</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2012</v>
       </c>
-      <c r="B3" t="n">
-        <v>3396</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -513,19 +521,25 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2012</v>
       </c>
-      <c r="B4" t="n">
-        <v>58768</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>58768</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -543,16 +557,20 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>1</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2014</v>
       </c>
-      <c r="B5" t="n">
-        <v>820</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -569,19 +587,25 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" t="n">
-        <v>2508</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -599,8 +623,10 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -659,8 +685,10 @@
       <c r="A9" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" t="n">
-        <v>5535</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5535</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -677,19 +705,25 @@
           <t>Norway Adults</t>
         </is>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2014</v>
       </c>
-      <c r="B10" t="n">
-        <v>1721</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -707,16 +741,20 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>1</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2012</v>
       </c>
-      <c r="B11" t="n">
-        <v>947</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -733,11 +771,15 @@
           <t>Dutch Internet User (18+)</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
   </sheetData>
